--- a/data/Data Extraction Form Items and Variable Names.xlsx
+++ b/data/Data Extraction Form Items and Variable Names.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahy/Documents/Current_Projects/Campbell_Methods_Paper/Analysis/Appendices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CC4425-232B-3A48-B5E8-4B23D4B4AA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345922CC-8AD2-FB43-9E86-6F99EB1ED3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31000" yWindow="540" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>two_db</t>
   </si>
   <si>
-    <t>15. Copy/paste text describing gray literature searches (not including search strategy  information)</t>
-  </si>
-  <si>
     <t>conf_proc</t>
   </si>
   <si>
@@ -262,18 +259,9 @@
     <t>6.  Month of Publication</t>
   </si>
   <si>
-    <t>7.  Coordinating Group</t>
-  </si>
-  <si>
     <t>8.  URL</t>
   </si>
   <si>
-    <t>9.  Is this an update to a previously published review?</t>
-  </si>
-  <si>
-    <t>10.  If Yes, were there changes to the search methods used? (If yes, extract. If no, stop here.)</t>
-  </si>
-  <si>
     <t>doi</t>
   </si>
   <si>
@@ -289,12 +277,6 @@
     <t>search_mo</t>
   </si>
   <si>
-    <t>16. Were conference proceedings searched separately?</t>
-  </si>
-  <si>
-    <t>17. Were theses and dissertations searched separately?</t>
-  </si>
-  <si>
     <t>registries</t>
   </si>
   <si>
@@ -353,237 +335,6 @@
   </si>
   <si>
     <t>auto_other</t>
-  </si>
-  <si>
-    <t>11. Year of date given in Plain Language Summary How up-to-date is this review (If range given or updated search, provide most recent date) (yyyy)</t>
-  </si>
-  <si>
-    <t>12. Month of date given in Plain Language Summary How up-to-date is this review (If range given or updated search, provide most recent date) (mm)</t>
-  </si>
-  <si>
-    <t>13. Copy/paste text describing database searches (not including search strategy information)</t>
-  </si>
-  <si>
-    <t>14. Were at least two databases relevant to the research question searched?</t>
-  </si>
-  <si>
-    <t>18. Were clinical trials publications searched separately?</t>
-  </si>
-  <si>
-    <t>19. Were clinical trials registries searched separately?</t>
-  </si>
-  <si>
-    <t>20. Was information from governments or inter-governmental organizations (e.g., WHO, UN, etc.) searched?</t>
-  </si>
-  <si>
-    <t>21. Was information from non-governmental organizations searched (e.g., NGOs, donor agencies, think tanks, etc.)?</t>
-  </si>
-  <si>
-    <t>22. What is the geographic focus of the review?</t>
-  </si>
-  <si>
-    <t>23. Were regional or country-specific databases searched?</t>
-  </si>
-  <si>
-    <t>24. If yes or unclear, copy and paste the text related to geographic sources, or provide the region- or country-specific databases here.</t>
-  </si>
-  <si>
-    <t>25. Were regional or country-specific gray literature sources searched?</t>
-  </si>
-  <si>
-    <t>26. Was Google Scholar searched?</t>
-  </si>
-  <si>
-    <t>27. Was Microsoft Academic searched?</t>
-  </si>
-  <si>
-    <t>28. Was Dimensions searched?</t>
-  </si>
-  <si>
-    <t>29. Was another free scholarly search engine used?</t>
-  </si>
-  <si>
-    <t>30. Was Google searched?</t>
-  </si>
-  <si>
-    <t>31. Was another free search engine used?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32. Was any hand-searching conducted in this review? </t>
-  </si>
-  <si>
-    <t>33. Specifically, were journals hand-searched?</t>
-  </si>
-  <si>
-    <t>34. If yes, how many back issues or what date range of journals (or note if not specified)?</t>
-  </si>
-  <si>
-    <t>35. Were conference proceedings hand-searched?</t>
-  </si>
-  <si>
-    <t>36. If yes, how many back issues or what date range of proceedings (or note if not specified)?</t>
-  </si>
-  <si>
-    <t>37. Do the authors indicate that experts were contacted?</t>
-  </si>
-  <si>
-    <t>38. Do the authors describe the methods used for contacting experts?</t>
-  </si>
-  <si>
-    <t>39. Do the authors indicate that practitioner networks such as listservs were contacted for additional studies?</t>
-  </si>
-  <si>
-    <t>40. Do the authors report the date(s) the searches were run (in the search methods or appendices)?</t>
-  </si>
-  <si>
-    <t>40b. If other, please clarify.</t>
-  </si>
-  <si>
-    <t>41. Do the authors provide a complete list of all of the databases searched?</t>
-  </si>
-  <si>
-    <t>42. For databases available in multiple platforms, do the authors report the platforms in which the databases were searched?</t>
-  </si>
-  <si>
-    <t>43. Do the authors report the content date ranges for the databases searched?</t>
-  </si>
-  <si>
-    <t>44. Did they provide a complete search strategy for at least one database (in the text, appendix or freely available external platform)?</t>
-  </si>
-  <si>
-    <t>45. Did they provide a complete search strategy for all databases (in the text, appendix or freely available external platform)?</t>
-  </si>
-  <si>
-    <t>46. For the reported searches, Boolean operators were used correctly</t>
-  </si>
-  <si>
-    <t>47. Subject headings were used in databases with thesauri and controlled vocabulary</t>
-  </si>
-  <si>
-    <t>48. Variations on keywords were searched (e.g., plural, alternate spellings)</t>
-  </si>
-  <si>
-    <t>49. Multi-word phrases were searched using phrasing syntax (e.g., double quotation marks)</t>
-  </si>
-  <si>
-    <t>50. For the reported searches, specific database syntax was used correctly</t>
-  </si>
-  <si>
-    <t>51. Date limits used when running search</t>
-  </si>
-  <si>
-    <t>52. Language limits used when running search</t>
-  </si>
-  <si>
-    <t>53. Other limits/filters?</t>
-  </si>
-  <si>
-    <t>54. Was the use of limits/filters justified?</t>
-  </si>
-  <si>
-    <t>55. Validated hedges were used</t>
-  </si>
-  <si>
-    <t>56. If validated hedges were used, copy and paste the relevant text here.</t>
-  </si>
-  <si>
-    <t>57. Did the authors indicate that search strategies from other literature reviews were adapted or reused?</t>
-  </si>
-  <si>
-    <t>58. If yes, was a citation provided?</t>
-  </si>
-  <si>
-    <t>59. Do the authors provide a list of all grey literature sources searched?</t>
-  </si>
-  <si>
-    <t>60. Gray literature searches reported</t>
-  </si>
-  <si>
-    <t>61. Copy and paste text related to gray literature search strategy if any.</t>
-  </si>
-  <si>
-    <t>62. Do the authors provide URLs for websites that were searched?</t>
-  </si>
-  <si>
-    <t>63. Details provided about how free scholarly search engine searches were performed</t>
-  </si>
-  <si>
-    <t>64. Copy and paste the text describing free scholarly search engine searches</t>
-  </si>
-  <si>
-    <t>65. Details provided about how search engine searches were performed</t>
-  </si>
-  <si>
-    <t>66. Copy and paste the text describing search engine searches</t>
-  </si>
-  <si>
-    <t>67. Was backward citation searching conducted?</t>
-  </si>
-  <si>
-    <t>68. Were the references of related review articles searched?</t>
-  </si>
-  <si>
-    <t>69. Was forward citation searching conducted?</t>
-  </si>
-  <si>
-    <t>70. Was the method reported for forward citation searching?</t>
-  </si>
-  <si>
-    <t>71. Did the authors indicate that reference management software was used?</t>
-  </si>
-  <si>
-    <t>72. Copy and paste the text related to reference manager usage.</t>
-  </si>
-  <si>
-    <t>73. Do the authors describe the processes and software used to deduplicate records?</t>
-  </si>
-  <si>
-    <t>74. Do the authors document the total number of records retrieved from each database?</t>
-  </si>
-  <si>
-    <t>75. Was the review co-authored with an information specialist?</t>
-  </si>
-  <si>
-    <t>76. Does the review indicate that an information specialist was involved in developing and/or running searches?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77. Was the involvement of an information specialist mentioned in the methods section? </t>
-  </si>
-  <si>
-    <t>78. Was the involvement of an information specialist mentioned in the acknowledgements section?</t>
-  </si>
-  <si>
-    <t>79. Was the involvement of an information specialist mentioned in the Role of Authors section?</t>
-  </si>
-  <si>
-    <t>80. Do the authors indicate that a peer review of the search strategy was performed?</t>
-  </si>
-  <si>
-    <t>81. Automation/ML used for search term harvesting</t>
-  </si>
-  <si>
-    <t>82. Tool/Method used for search term harvesting</t>
-  </si>
-  <si>
-    <t>83. Automation/ML used for running of the searches</t>
-  </si>
-  <si>
-    <t>84. Tool/Method used for running searches</t>
-  </si>
-  <si>
-    <t>85. Automation/ML used for deduplication (not including citation management tool)</t>
-  </si>
-  <si>
-    <t>86. Tool/Method used for deduplication</t>
-  </si>
-  <si>
-    <t>87. Other uses related to search?</t>
-  </si>
-  <si>
-    <t>88. Is Campbell Search Guidance document (Kugley et al 2017) referenced?</t>
-  </si>
-  <si>
-    <t>89. Was the search updated during the course of the review prior to publication?</t>
   </si>
   <si>
     <t xml:space="preserve">Data extraction form items and associated variables </t>
@@ -603,6 +354,255 @@
       </rPr>
       <t>Campbell Systematic Reviews.</t>
     </r>
+  </si>
+  <si>
+    <t>9.  Coordinating Group</t>
+  </si>
+  <si>
+    <t>10.  Is this an update to a previously published review?</t>
+  </si>
+  <si>
+    <t>11.  If Yes, were there changes to the search methods used? (If yes, extract. If no, stop here.)</t>
+  </si>
+  <si>
+    <t>12. Year of date given in Plain Language Summary How up-to-date is this review (If range given or updated search, provide most recent date) (yyyy)</t>
+  </si>
+  <si>
+    <t>13. Month of date given in Plain Language Summary How up-to-date is this review (If range given or updated search, provide most recent date) (mm)</t>
+  </si>
+  <si>
+    <t>14. Copy/paste text describing database searches (not including search strategy information)</t>
+  </si>
+  <si>
+    <t>15. Were at least two databases relevant to the research question searched?</t>
+  </si>
+  <si>
+    <t>16. Copy/paste text describing gray literature searches (not including search strategy  information)</t>
+  </si>
+  <si>
+    <t>17. Were conference proceedings searched separately?</t>
+  </si>
+  <si>
+    <t>18. Were theses and dissertations searched separately?</t>
+  </si>
+  <si>
+    <t>19. Were clinical trials publications searched separately?</t>
+  </si>
+  <si>
+    <t>20. Were clinical trials registries searched separately?</t>
+  </si>
+  <si>
+    <t>21. Was information from governments or inter-governmental organizations (e.g., WHO, UN, etc.) searched?</t>
+  </si>
+  <si>
+    <t>22. Was information from non-governmental organizations searched (e.g., NGOs, donor agencies, think tanks, etc.)?</t>
+  </si>
+  <si>
+    <t>23. What is the geographic focus of the review?</t>
+  </si>
+  <si>
+    <t>24. Were regional or country-specific databases searched?</t>
+  </si>
+  <si>
+    <t>25. If yes or unclear, copy and paste the text related to geographic sources, or provide the region- or country-specific databases here.</t>
+  </si>
+  <si>
+    <t>26. Were regional or country-specific gray literature sources searched?</t>
+  </si>
+  <si>
+    <t>27. Was Google Scholar searched?</t>
+  </si>
+  <si>
+    <t>28. Was Microsoft Academic searched?</t>
+  </si>
+  <si>
+    <t>29. Was Dimensions searched?</t>
+  </si>
+  <si>
+    <t>30. Was another free scholarly search engine used?</t>
+  </si>
+  <si>
+    <t>31. Was Google searched?</t>
+  </si>
+  <si>
+    <t>32. Was another free search engine used?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33. Was any hand-searching conducted in this review? </t>
+  </si>
+  <si>
+    <t>34. Specifically, were journals hand-searched?</t>
+  </si>
+  <si>
+    <t>35. If yes, how many back issues or what date range of journals (or note if not specified)?</t>
+  </si>
+  <si>
+    <t>36. Were conference proceedings hand-searched?</t>
+  </si>
+  <si>
+    <t>37. If yes, how many back issues or what date range of proceedings (or note if not specified)?</t>
+  </si>
+  <si>
+    <t>38. Do the authors indicate that experts were contacted?</t>
+  </si>
+  <si>
+    <t>39. Do the authors describe the methods used for contacting experts?</t>
+  </si>
+  <si>
+    <t>40. Do the authors indicate that practitioner networks such as listservs were contacted for additional studies?</t>
+  </si>
+  <si>
+    <t>41. Do the authors report the date(s) the searches were run (in the search methods or appendices)?</t>
+  </si>
+  <si>
+    <t>41b. If other, please clarify.</t>
+  </si>
+  <si>
+    <t>42. Do the authors provide a complete list of all of the databases searched?</t>
+  </si>
+  <si>
+    <t>43. For databases available in multiple platforms, do the authors report the platforms in which the databases were searched?</t>
+  </si>
+  <si>
+    <t>44. Do the authors report the content date ranges for the databases searched?</t>
+  </si>
+  <si>
+    <t>45. Did they provide a complete search strategy for at least one database (in the text, appendix or freely available external platform)?</t>
+  </si>
+  <si>
+    <t>46. Did they provide a complete search strategy for all databases (in the text, appendix or freely available external platform)?</t>
+  </si>
+  <si>
+    <t>47. For the reported searches, Boolean operators were used correctly</t>
+  </si>
+  <si>
+    <t>48. Subject headings were used in databases with thesauri and controlled vocabulary</t>
+  </si>
+  <si>
+    <t>49. Variations on keywords were searched (e.g., plural, alternate spellings)</t>
+  </si>
+  <si>
+    <t>50. Multi-word phrases were searched using phrasing syntax (e.g., double quotation marks)</t>
+  </si>
+  <si>
+    <t>51. For the reported searches, specific database syntax was used correctly</t>
+  </si>
+  <si>
+    <t>52. Date limits used when running search</t>
+  </si>
+  <si>
+    <t>53. Language limits used when running search</t>
+  </si>
+  <si>
+    <t>54. Other limits/filters?</t>
+  </si>
+  <si>
+    <t>55. Was the use of limits/filters justified?</t>
+  </si>
+  <si>
+    <t>56. Validated hedges were used</t>
+  </si>
+  <si>
+    <t>57. If validated hedges were used, copy and paste the relevant text here.</t>
+  </si>
+  <si>
+    <t>58. Did the authors indicate that search strategies from other literature reviews were adapted or reused?</t>
+  </si>
+  <si>
+    <t>59. If yes, was a citation provided?</t>
+  </si>
+  <si>
+    <t>60. Do the authors provide a list of all grey literature sources searched?</t>
+  </si>
+  <si>
+    <t>61. Gray literature searches reported</t>
+  </si>
+  <si>
+    <t>62. Copy and paste text related to gray literature search strategy if any.</t>
+  </si>
+  <si>
+    <t>63. Do the authors provide URLs for websites that were searched?</t>
+  </si>
+  <si>
+    <t>64. Details provided about how free scholarly search engine searches were performed</t>
+  </si>
+  <si>
+    <t>65. Copy and paste the text describing free scholarly search engine searches</t>
+  </si>
+  <si>
+    <t>66. Details provided about how search engine searches were performed</t>
+  </si>
+  <si>
+    <t>67. Copy and paste the text describing search engine searches</t>
+  </si>
+  <si>
+    <t>68. Was backward citation searching conducted?</t>
+  </si>
+  <si>
+    <t>69. Were the references of related review articles searched?</t>
+  </si>
+  <si>
+    <t>70. Was forward citation searching conducted?</t>
+  </si>
+  <si>
+    <t>71. Was the method reported for forward citation searching?</t>
+  </si>
+  <si>
+    <t>72. Did the authors indicate that reference management software was used?</t>
+  </si>
+  <si>
+    <t>73. Copy and paste the text related to reference manager usage.</t>
+  </si>
+  <si>
+    <t>74. Do the authors describe the processes and software used to deduplicate records?</t>
+  </si>
+  <si>
+    <t>75. Do the authors document the total number of records retrieved from each database?</t>
+  </si>
+  <si>
+    <t>76. Was the review co-authored with an information specialist?</t>
+  </si>
+  <si>
+    <t>77. Does the review indicate that an information specialist was involved in developing and/or running searches?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78. Was the involvement of an information specialist mentioned in the methods section? </t>
+  </si>
+  <si>
+    <t>79. Was the involvement of an information specialist mentioned in the acknowledgements section?</t>
+  </si>
+  <si>
+    <t>80. Was the involvement of an information specialist mentioned in the Role of Authors section?</t>
+  </si>
+  <si>
+    <t>81. Do the authors indicate that a peer review of the search strategy was performed?</t>
+  </si>
+  <si>
+    <t>82. Automation/ML used for search term harvesting</t>
+  </si>
+  <si>
+    <t>83. Tool/Method used for search term harvesting</t>
+  </si>
+  <si>
+    <t>84. Automation/ML used for running of the searches</t>
+  </si>
+  <si>
+    <t>85. Tool/Method used for running searches</t>
+  </si>
+  <si>
+    <t>86. Automation/ML used for deduplication (not including citation management tool)</t>
+  </si>
+  <si>
+    <t>87. Tool/Method used for deduplication</t>
+  </si>
+  <si>
+    <t>88. Other uses related to search?</t>
+  </si>
+  <si>
+    <t>89. Is Campbell Search Guidance document (Kugley et al 2017) referenced?</t>
+  </si>
+  <si>
+    <t>90. Was the search updated during the course of the review prior to publication?</t>
   </si>
 </sst>
 </file>
@@ -677,17 +677,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -910,25 +909,25 @@
   </sheetPr>
   <dimension ref="A1:B873"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="74.83203125" style="3" customWidth="1"/>
     <col min="3" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>188</v>
+      <c r="A2" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -936,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -950,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -987,26 +986,26 @@
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1014,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1022,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1030,29 +1029,29 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1060,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1068,627 +1067,627 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>41</v>
+      <c r="A58" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
-        <v>101</v>
+      <c r="A74" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="8" t="s">
+      <c r="B94" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
+      <c r="B95" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="B96" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
